--- a/workbooks/ipl.xlsx
+++ b/workbooks/ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidhi_kumar\Desktop\python-db-task1\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7825D99F-AAF5-4A1A-9C8A-A59D2BCB40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FB17C-2957-4159-8839-5CD216C39E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{A4FCBADF-EBC1-4FBA-8960-E078955FD383}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="189">
   <si>
     <t>IPL-2010</t>
   </si>
@@ -956,15 +956,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B17FB-3840-447E-9D06-76F3749A806A}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -993,19 +993,19 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>180</v>
       </c>
@@ -1033,20 +1033,20 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>187</v>
       </c>
@@ -1074,20 +1074,20 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>34</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>195</v>
       </c>
@@ -1115,20 +1115,20 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>198</v>
       </c>
@@ -1156,20 +1156,20 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>482</v>
       </c>
@@ -1197,20 +1197,20 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>487</v>
       </c>
@@ -1238,20 +1238,20 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="K7">
-        <v>32</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>498</v>
       </c>
@@ -1279,20 +1279,20 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>62</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>62</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>501</v>
       </c>
@@ -1320,20 +1320,20 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
+      <c r="J9">
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>25</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>526</v>
       </c>
@@ -1361,20 +1361,20 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>533</v>
       </c>
@@ -1402,20 +1402,20 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
         <v>2</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>536</v>
       </c>
@@ -1443,20 +1443,20 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>540</v>
       </c>
@@ -1484,17 +1484,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>26</v>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
         <v>9</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
         <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1507,13 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1541,16 +1544,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1581,17 +1584,17 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
+      <c r="J2">
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1622,17 +1625,17 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1663,17 +1666,17 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
         <v>49</v>
-      </c>
-      <c r="K4">
-        <v>27</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1704,17 +1707,17 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
         <v>51</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1745,17 +1748,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>23</v>
+      <c r="J6">
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>19</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1786,17 +1789,17 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
         <v>7</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1827,17 +1830,17 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
         <v>7</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1868,17 +1871,17 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
         <v>6</v>
       </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1909,17 +1912,17 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>140</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
         <v>7</v>
-      </c>
-      <c r="K10">
-        <v>140</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1950,17 +1953,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
         <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1991,17 +1994,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" t="s">
         <v>12</v>
-      </c>
-      <c r="K12">
-        <v>13</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -2032,17 +2035,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>23</v>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
         <v>6</v>
       </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2073,17 +2076,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>19</v>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
         <v>9</v>
       </c>
+      <c r="L14" t="s">
+        <v>61</v>
+      </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -2114,17 +2117,17 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>3</v>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
       </c>
       <c r="M15" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2155,17 +2158,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>26</v>
+      <c r="J16">
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -2196,17 +2199,17 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>26</v>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
         <v>8</v>
       </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -2237,17 +2240,17 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>26</v>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
         <v>10</v>
       </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -2278,17 +2281,17 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>26</v>
+      <c r="J19">
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>36</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -2319,17 +2322,17 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>3</v>
+      <c r="J20">
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>17</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -2360,17 +2363,17 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" t="s">
         <v>10</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -2401,17 +2404,17 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>26</v>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>7</v>
       </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -2442,17 +2445,17 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>19</v>
+      <c r="J23">
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>57</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -2483,17 +2486,17 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>19</v>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
         <v>9</v>
       </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -2524,17 +2527,17 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25">
         <v>26</v>
       </c>
       <c r="K25">
-        <v>26</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -2565,17 +2568,17 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>26</v>
+      <c r="J26">
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>85</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2606,17 +2609,17 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>26</v>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
         <v>9</v>
       </c>
+      <c r="L27" t="s">
+        <v>72</v>
+      </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2647,17 +2650,17 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28" t="s">
-        <v>26</v>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -2688,17 +2691,17 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>26</v>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
         <v>8</v>
       </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
       <c r="M29" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2729,17 +2732,17 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>26</v>
+      <c r="J30">
+        <v>20</v>
       </c>
       <c r="K30">
-        <v>20</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2770,17 +2773,17 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" t="s">
         <v>7</v>
-      </c>
-      <c r="K31">
-        <v>42</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2811,17 +2814,17 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32">
+        <v>59</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
         <v>2</v>
-      </c>
-      <c r="K32">
-        <v>59</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2852,17 +2855,17 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>26</v>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
         <v>6</v>
       </c>
+      <c r="L33" t="s">
+        <v>72</v>
+      </c>
       <c r="M33" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2893,17 +2896,17 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>23</v>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>77</v>
       </c>
       <c r="M34" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2934,17 +2937,17 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>26</v>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -2975,17 +2978,17 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>19</v>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L36" t="s">
+        <v>78</v>
       </c>
       <c r="M36" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -3016,17 +3019,17 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37">
+        <v>38</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" t="s">
         <v>12</v>
-      </c>
-      <c r="K37">
-        <v>38</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -3057,17 +3060,17 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>26</v>
+      <c r="J38">
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -3098,17 +3101,17 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>26</v>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
         <v>8</v>
       </c>
+      <c r="L39" t="s">
+        <v>72</v>
+      </c>
       <c r="M39" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -3139,17 +3142,17 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
-        <v>26</v>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>0</v>
+      <c r="L40" t="s">
+        <v>71</v>
       </c>
       <c r="M40" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -3180,17 +3183,17 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
-        <v>26</v>
+      <c r="J41">
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
         <v>7</v>
       </c>
+      <c r="L41" t="s">
+        <v>66</v>
+      </c>
       <c r="M41" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -3221,17 +3224,17 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>26</v>
+      <c r="J42">
+        <v>130</v>
       </c>
       <c r="K42">
-        <v>130</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>72</v>
       </c>
       <c r="M42" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -3262,17 +3265,17 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
-        <v>23</v>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
         <v>7</v>
       </c>
+      <c r="L43" t="s">
+        <v>80</v>
+      </c>
       <c r="M43" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -3303,17 +3306,17 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
-        <v>26</v>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
         <v>7</v>
       </c>
+      <c r="L44" t="s">
+        <v>71</v>
+      </c>
       <c r="M44" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -3344,17 +3347,17 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>26</v>
+      <c r="J45">
+        <v>24</v>
       </c>
       <c r="K45">
-        <v>24</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>71</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -3385,17 +3388,17 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
-        <v>26</v>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -3426,17 +3429,17 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
-        <v>23</v>
+      <c r="J47">
+        <v>32</v>
       </c>
       <c r="K47">
-        <v>32</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>43</v>
       </c>
       <c r="M47" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -3467,17 +3470,17 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
         <v>2</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>5</v>
-      </c>
-      <c r="M48" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -3508,17 +3511,17 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>26</v>
+      <c r="J49">
+        <v>16</v>
       </c>
       <c r="K49">
-        <v>16</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>81</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -3549,17 +3552,17 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" t="s">
         <v>12</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>8</v>
-      </c>
-      <c r="M50" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -3590,17 +3593,17 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" t="s">
         <v>7</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -3631,17 +3634,17 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52" t="s">
         <v>16</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>8</v>
-      </c>
-      <c r="M52" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -3672,17 +3675,17 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
-        <v>19</v>
+      <c r="J53">
+        <v>18</v>
       </c>
       <c r="K53">
-        <v>18</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>84</v>
       </c>
       <c r="M53" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -3713,17 +3716,17 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54">
+        <v>27</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" t="s">
         <v>12</v>
-      </c>
-      <c r="K54">
-        <v>27</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3754,10 +3757,10 @@
       <c r="I55">
         <v>0</v>
       </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
       <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
         <v>0</v>
       </c>
     </row>
@@ -3789,17 +3792,17 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>26</v>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
         <v>7</v>
       </c>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
       <c r="M56" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3830,17 +3833,17 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>26</v>
+      <c r="J57">
+        <v>138</v>
       </c>
       <c r="K57">
-        <v>138</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>72</v>
       </c>
       <c r="M57" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -3871,10 +3874,10 @@
       <c r="I58">
         <v>0</v>
       </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
         <v>0</v>
       </c>
     </row>
@@ -3906,17 +3909,17 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
-        <v>26</v>
+      <c r="J59">
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>45</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>75</v>
       </c>
       <c r="M59" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -3947,17 +3950,17 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" t="s">
-        <v>3</v>
+      <c r="J60">
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
         <v>7</v>
       </c>
+      <c r="L60" t="s">
+        <v>88</v>
+      </c>
       <c r="M60" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3988,17 +3991,17 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M61" t="s">
         <v>7</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>5</v>
-      </c>
-      <c r="M61" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -4029,17 +4032,17 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>26</v>
+      <c r="J62">
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
         <v>7</v>
       </c>
+      <c r="L62" t="s">
+        <v>71</v>
+      </c>
       <c r="M62" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -4070,17 +4073,17 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>19</v>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
         <v>6</v>
       </c>
+      <c r="L63" t="s">
+        <v>91</v>
+      </c>
       <c r="M63" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -4111,17 +4114,17 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>26</v>
+      <c r="J64">
+        <v>144</v>
       </c>
       <c r="K64">
-        <v>144</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
       </c>
       <c r="M64" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -4152,17 +4155,17 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>26</v>
+      <c r="J65">
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>82</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>71</v>
       </c>
       <c r="M65" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -4193,17 +4196,17 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>26</v>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>75</v>
       </c>
       <c r="M66" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -4234,17 +4237,17 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" t="s">
         <v>16</v>
-      </c>
-      <c r="K67">
-        <v>8</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4257,10 +4260,13 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4291,16 +4297,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -4331,17 +4337,17 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -4372,17 +4378,17 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
         <v>10</v>
       </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -4413,17 +4419,17 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" t="s">
         <v>51</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -4454,17 +4460,17 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
+      <c r="J5">
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>14</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -4495,17 +4501,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>33</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
         <v>12</v>
-      </c>
-      <c r="K6">
-        <v>33</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -4536,17 +4542,17 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>23</v>
+      <c r="J7">
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>66</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -4577,17 +4583,17 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>23</v>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -4618,17 +4624,17 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>23</v>
+      <c r="J9">
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -4659,17 +4665,17 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>23</v>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
         <v>9</v>
       </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -4697,17 +4703,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>23</v>
+      <c r="J11">
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>41</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -4738,17 +4744,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>23</v>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
         <v>6</v>
       </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -4779,17 +4785,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>3</v>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -4820,17 +4826,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s">
         <v>2</v>
-      </c>
-      <c r="K14">
-        <v>31</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -4861,17 +4867,17 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" t="s">
         <v>7</v>
-      </c>
-      <c r="K15">
-        <v>39</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -4902,17 +4908,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>26</v>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
         <v>6</v>
       </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -4943,17 +4949,17 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>23</v>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
         <v>6</v>
       </c>
+      <c r="L17" t="s">
+        <v>101</v>
+      </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -4984,17 +4990,17 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>23</v>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
         <v>6</v>
       </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -5025,17 +5031,17 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>23</v>
+      <c r="J19">
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>48</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -5066,17 +5072,17 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" t="s">
         <v>70</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -5107,17 +5113,17 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>23</v>
+      <c r="J21">
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>76</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>117</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -5148,17 +5154,17 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>23</v>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>7</v>
       </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -5189,17 +5195,17 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" t="s">
         <v>7</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -5230,17 +5236,17 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>26</v>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -5271,17 +5277,17 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>19</v>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>78</v>
       </c>
       <c r="M25" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -5312,17 +5318,17 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" t="s">
         <v>2</v>
-      </c>
-      <c r="K26">
-        <v>43</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -5353,17 +5359,17 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>23</v>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>119</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -5394,17 +5400,17 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
         <v>12</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -5435,17 +5441,17 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>23</v>
+      <c r="J29">
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>120</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -5476,17 +5482,17 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>23</v>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
         <v>7</v>
       </c>
+      <c r="L30" t="s">
+        <v>121</v>
+      </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -5517,17 +5523,17 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" t="s">
         <v>2</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>8</v>
-      </c>
-      <c r="M31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -5558,17 +5564,17 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" t="s">
         <v>16</v>
-      </c>
-      <c r="K32">
-        <v>30</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -5599,17 +5605,17 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>23</v>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
         <v>6</v>
       </c>
+      <c r="L33" t="s">
+        <v>121</v>
+      </c>
       <c r="M33" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -5640,17 +5646,17 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>19</v>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
         <v>7</v>
       </c>
+      <c r="L34" t="s">
+        <v>123</v>
+      </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -5681,17 +5687,17 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>23</v>
+      <c r="J35">
+        <v>16</v>
       </c>
       <c r="K35">
-        <v>16</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
       </c>
       <c r="M35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -5722,17 +5728,17 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>23</v>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
         <v>7</v>
       </c>
+      <c r="L36" t="s">
+        <v>124</v>
+      </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -5763,17 +5769,17 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" t="s">
         <v>16</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -5804,17 +5810,17 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>19</v>
+      <c r="J38">
+        <v>23</v>
       </c>
       <c r="K38">
-        <v>23</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>123</v>
       </c>
       <c r="M38" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -5845,17 +5851,17 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>23</v>
+      <c r="J39">
+        <v>22</v>
       </c>
       <c r="K39">
-        <v>22</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>126</v>
       </c>
       <c r="M39" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -5886,17 +5892,17 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" t="s">
         <v>12</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -5927,17 +5933,17 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>128</v>
+      </c>
+      <c r="M41" t="s">
         <v>51</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -5968,17 +5974,17 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>23</v>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
         <v>6</v>
       </c>
+      <c r="L42" t="s">
+        <v>124</v>
+      </c>
       <c r="M42" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -6009,17 +6015,17 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" t="s">
         <v>7</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>6</v>
-      </c>
-      <c r="M43" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -6050,17 +6056,17 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
-        <v>19</v>
+      <c r="J44">
+        <v>25</v>
       </c>
       <c r="K44">
-        <v>25</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>99</v>
       </c>
       <c r="M44" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -6091,17 +6097,17 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>23</v>
+      <c r="J45">
+        <v>9</v>
       </c>
       <c r="K45">
-        <v>9</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>129</v>
       </c>
       <c r="M45" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -6132,17 +6138,17 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
-        <v>26</v>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>58</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -6173,17 +6179,17 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" t="s">
         <v>16</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>7</v>
-      </c>
-      <c r="M47" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6196,7 +6202,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6230,16 +6236,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -6270,17 +6276,17 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
+      <c r="J2">
+        <v>51</v>
       </c>
       <c r="K2">
-        <v>51</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -6311,17 +6317,17 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
         <v>7</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -6352,17 +6358,17 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>3</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
         <v>6</v>
       </c>
+      <c r="L4" t="s">
+        <v>133</v>
+      </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -6393,17 +6399,17 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
         <v>7</v>
       </c>
+      <c r="L5" t="s">
+        <v>134</v>
+      </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -6434,17 +6440,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>19</v>
+      <c r="J6">
+        <v>146</v>
       </c>
       <c r="K6">
-        <v>146</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -6475,17 +6481,17 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>3</v>
+      <c r="J7">
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>135</v>
       </c>
       <c r="M7" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -6516,17 +6522,17 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>26</v>
+      <c r="J8">
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -6557,17 +6563,17 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>3</v>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
         <v>9</v>
       </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -6598,17 +6604,17 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>3</v>
+      <c r="J10">
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -6639,17 +6645,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
         <v>12</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -6680,13 +6686,13 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
       <c r="K12">
-        <v>12</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6718,17 +6724,17 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
-        <v>23</v>
+      <c r="J13">
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -6759,17 +6765,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>3</v>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
       </c>
       <c r="M14" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -6800,17 +6806,17 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>19</v>
+      <c r="J15">
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>98</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -6841,17 +6847,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" t="s">
         <v>12</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>5</v>
-      </c>
-      <c r="M16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -6882,17 +6888,17 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>3</v>
+      <c r="J17">
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>40</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -6923,17 +6929,17 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
-        <v>3</v>
+      <c r="J18">
+        <v>67</v>
       </c>
       <c r="K18">
-        <v>67</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
       </c>
       <c r="M18" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -6964,17 +6970,17 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
+      <c r="J19">
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>37</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -7005,17 +7011,17 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
-        <v>23</v>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
         <v>7</v>
       </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
       <c r="M20" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -7046,17 +7052,17 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
         <v>10</v>
-      </c>
-      <c r="K21">
-        <v>11</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -7087,17 +7093,17 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>19</v>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>8</v>
       </c>
+      <c r="L22" t="s">
+        <v>145</v>
+      </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -7128,17 +7134,17 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" t="s">
         <v>10</v>
-      </c>
-      <c r="K23">
-        <v>16</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -7169,17 +7175,17 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>3</v>
+      <c r="J24">
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>29</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -7210,17 +7216,17 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>26</v>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -7251,17 +7257,17 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" t="s">
         <v>7</v>
-      </c>
-      <c r="K26">
-        <v>17</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -7292,17 +7298,17 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" t="s">
         <v>73</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -7333,10 +7339,10 @@
       <c r="I28">
         <v>0</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
         <v>0</v>
       </c>
     </row>
@@ -7368,17 +7374,17 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>3</v>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
         <v>8</v>
       </c>
+      <c r="L29" t="s">
+        <v>148</v>
+      </c>
       <c r="M29" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -7409,17 +7415,17 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>3</v>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>114</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -7450,17 +7456,17 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" t="s">
         <v>70</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -7491,17 +7497,17 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>3</v>
+      <c r="J32">
+        <v>37</v>
       </c>
       <c r="K32">
-        <v>37</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
       </c>
       <c r="M32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -7532,17 +7538,17 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>3</v>
+      <c r="J33">
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -7573,17 +7579,17 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" t="s">
         <v>7</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>6</v>
-      </c>
-      <c r="M34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -7614,17 +7620,17 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>3</v>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>94</v>
       </c>
       <c r="M35" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -7655,17 +7661,17 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>26</v>
+      <c r="J36">
+        <v>21</v>
       </c>
       <c r="K36">
-        <v>21</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -7696,17 +7702,17 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" t="s">
         <v>2</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -7737,17 +7743,17 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" t="s">
         <v>16</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="M38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -7778,17 +7784,17 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39">
+        <v>86</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
         <v>12</v>
-      </c>
-      <c r="K39">
-        <v>86</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -7819,17 +7825,17 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
-        <v>3</v>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
         <v>9</v>
       </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
       <c r="M40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -7860,17 +7866,17 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
-        <v>26</v>
+      <c r="J41">
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>150</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -7901,17 +7907,17 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>23</v>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>151</v>
       </c>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -7942,17 +7948,17 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43">
+        <v>48</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
         <v>12</v>
-      </c>
-      <c r="K43">
-        <v>48</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -7983,17 +7989,17 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M44" t="s">
         <v>2</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -8024,17 +8030,17 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45" t="s">
+        <v>135</v>
+      </c>
+      <c r="M45" t="s">
         <v>2</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>7</v>
-      </c>
-      <c r="M45" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -8065,17 +8071,17 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>8</v>
+      </c>
+      <c r="L46" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" t="s">
         <v>12</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>8</v>
-      </c>
-      <c r="M46" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -8106,17 +8112,17 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" t="s">
         <v>7</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>8</v>
-      </c>
-      <c r="M47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -8147,17 +8153,17 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>152</v>
+      </c>
+      <c r="M48" t="s">
         <v>16</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>8</v>
-      </c>
-      <c r="M48" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -8188,17 +8194,17 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
-        <v>23</v>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>126</v>
       </c>
       <c r="M49" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -8229,17 +8235,17 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>153</v>
+      </c>
+      <c r="M50" t="s">
         <v>2</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -8270,17 +8276,17 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>94</v>
+      </c>
+      <c r="M51" t="s">
         <v>7</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>6</v>
-      </c>
-      <c r="M51" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -8311,17 +8317,17 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
-        <v>3</v>
+      <c r="J52">
+        <v>37</v>
       </c>
       <c r="K52">
-        <v>37</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>154</v>
       </c>
       <c r="M52" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -8352,17 +8358,17 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
-        <v>26</v>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
         <v>10</v>
       </c>
+      <c r="L53" t="s">
+        <v>155</v>
+      </c>
       <c r="M53" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -8393,17 +8399,17 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
-        <v>3</v>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
         <v>9</v>
       </c>
+      <c r="L54" t="s">
+        <v>54</v>
+      </c>
       <c r="M54" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -8434,17 +8440,17 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
-        <v>3</v>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
         <v>8</v>
       </c>
+      <c r="L55" t="s">
+        <v>139</v>
+      </c>
       <c r="M55" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -8475,17 +8481,17 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>3</v>
+      <c r="J56">
+        <v>10</v>
       </c>
       <c r="K56">
-        <v>10</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>95</v>
       </c>
       <c r="M56" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -8516,17 +8522,17 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57" t="s">
         <v>51</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -8557,17 +8563,17 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" t="s">
-        <v>3</v>
+      <c r="J58">
+        <v>27</v>
       </c>
       <c r="K58">
-        <v>27</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>157</v>
       </c>
       <c r="M58" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -8598,17 +8604,17 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" t="s">
         <v>90</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>7</v>
-      </c>
-      <c r="M59" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -8639,17 +8645,17 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60">
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>158</v>
+      </c>
+      <c r="M60" t="s">
         <v>16</v>
-      </c>
-      <c r="K60">
-        <v>22</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -8680,17 +8686,17 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M61" t="s">
         <v>16</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>4</v>
-      </c>
-      <c r="M61" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -8721,17 +8727,17 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>23</v>
+      <c r="J62">
+        <v>4</v>
       </c>
       <c r="K62">
-        <v>4</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>159</v>
       </c>
       <c r="M62" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -8762,17 +8768,17 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>3</v>
+      <c r="J63">
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>55</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>154</v>
       </c>
       <c r="M63" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -8803,17 +8809,17 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64" t="s">
-        <v>3</v>
+      <c r="J64">
+        <v>4</v>
       </c>
       <c r="K64">
-        <v>4</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>134</v>
       </c>
       <c r="M64" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -8844,17 +8850,17 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
+      <c r="L65" t="s">
+        <v>160</v>
+      </c>
+      <c r="M65" t="s">
         <v>16</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>9</v>
-      </c>
-      <c r="M65" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -8885,17 +8891,17 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>26</v>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>75</v>
       </c>
       <c r="M66" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -8926,17 +8932,17 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
-        <v>3</v>
+      <c r="J67">
+        <v>34</v>
       </c>
       <c r="K67">
-        <v>34</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>136</v>
       </c>
       <c r="M67" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -8967,17 +8973,17 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" t="s">
-        <v>3</v>
+      <c r="J68">
+        <v>11</v>
       </c>
       <c r="K68">
-        <v>11</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>139</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -9008,17 +9014,17 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69" t="s">
+        <v>58</v>
+      </c>
+      <c r="M69" t="s">
         <v>12</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>6</v>
-      </c>
-      <c r="M69" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -9049,17 +9055,17 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>161</v>
+      </c>
+      <c r="M70" t="s">
         <v>98</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -9090,17 +9096,17 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71" t="s">
+        <v>162</v>
+      </c>
+      <c r="M71" t="s">
         <v>16</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>5</v>
-      </c>
-      <c r="M71" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -9131,17 +9137,17 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>19</v>
+      <c r="J72">
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>40</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>163</v>
       </c>
       <c r="M72" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -9172,17 +9178,17 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73" t="s">
+        <v>154</v>
+      </c>
+      <c r="M73" t="s">
         <v>98</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>5</v>
-      </c>
-      <c r="M73" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -9213,17 +9219,17 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74">
+        <v>16</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>160</v>
+      </c>
+      <c r="M74" t="s">
         <v>98</v>
-      </c>
-      <c r="K74">
-        <v>16</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
@@ -9254,17 +9260,17 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" t="s">
         <v>98</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9277,10 +9283,14 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="12" max="12" width="20.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -9311,13 +9321,16 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -9348,17 +9361,17 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -9389,17 +9402,17 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -9430,17 +9443,17 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
         <v>6</v>
       </c>
+      <c r="L4" t="s">
+        <v>165</v>
+      </c>
       <c r="M4" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -9471,17 +9484,17 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
+      <c r="J5">
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>14</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -9512,17 +9525,17 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
         <v>49</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -9553,17 +9566,17 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -9594,17 +9607,17 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>23</v>
+      <c r="J8">
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -9635,17 +9648,17 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" t="s">
         <v>49</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -9676,17 +9689,17 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>26</v>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>169</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -9717,17 +9730,17 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
         <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -9758,17 +9771,17 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>19</v>
+      <c r="J12">
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>29</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>170</v>
       </c>
       <c r="M12" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -9799,17 +9812,17 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>19</v>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
         <v>7</v>
       </c>
+      <c r="L13" t="s">
+        <v>171</v>
+      </c>
       <c r="M13" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -9840,17 +9853,17 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>19</v>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
         <v>9</v>
       </c>
+      <c r="L14" t="s">
+        <v>172</v>
+      </c>
       <c r="M14" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -9881,17 +9894,17 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>19</v>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
         <v>8</v>
       </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
       <c r="M15" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -9922,17 +9935,17 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>23</v>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -9963,17 +9976,17 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>105</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
         <v>2</v>
-      </c>
-      <c r="K17">
-        <v>105</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -10004,17 +10017,17 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="s">
         <v>12</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -10045,17 +10058,17 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
         <v>2</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -10086,17 +10099,17 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="s">
         <v>7</v>
-      </c>
-      <c r="K20">
-        <v>11</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -10127,17 +10140,17 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
-        <v>19</v>
+      <c r="J21">
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -10168,17 +10181,17 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" t="s">
-        <v>26</v>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
         <v>7</v>
       </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -10209,17 +10222,17 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>19</v>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
         <v>7</v>
       </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
       <c r="M23" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -10250,17 +10263,17 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>19</v>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -10291,17 +10304,17 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>19</v>
+      <c r="J25">
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>41</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -10332,17 +10345,17 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>19</v>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>145</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -10373,17 +10386,17 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>19</v>
+      <c r="J27">
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>63</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>78</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -10414,17 +10427,17 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>19</v>
+      <c r="J28">
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>39</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -10455,17 +10468,17 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>19</v>
+      <c r="J29">
+        <v>35</v>
       </c>
       <c r="K29">
-        <v>35</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -10496,17 +10509,17 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>175</v>
+      </c>
+      <c r="M30" t="s">
         <v>12</v>
-      </c>
-      <c r="K30">
-        <v>38</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -10537,17 +10550,17 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>26</v>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
         <v>9</v>
       </c>
+      <c r="L31" t="s">
+        <v>176</v>
+      </c>
       <c r="M31" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -10578,17 +10591,17 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" t="s">
         <v>12</v>
-      </c>
-      <c r="K32">
-        <v>22</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -10619,17 +10632,17 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" t="s">
         <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>7</v>
-      </c>
-      <c r="M33" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -10660,17 +10673,17 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" t="s">
         <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
-      <c r="M34" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -10701,17 +10714,17 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" t="s">
         <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>8</v>
-      </c>
-      <c r="M35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -10742,17 +10755,17 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>3</v>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -10783,17 +10796,17 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
-        <v>19</v>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
         <v>7</v>
       </c>
+      <c r="L37" t="s">
+        <v>179</v>
+      </c>
       <c r="M37" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -10824,17 +10837,17 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>19</v>
+      <c r="J38">
+        <v>8</v>
       </c>
       <c r="K38">
-        <v>8</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>84</v>
       </c>
       <c r="M38" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -10865,17 +10878,17 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39" t="s">
+        <v>175</v>
+      </c>
+      <c r="M39" t="s">
         <v>12</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>8</v>
-      </c>
-      <c r="M39" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -10906,17 +10919,17 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" t="s">
-        <v>19</v>
+      <c r="J40">
+        <v>23</v>
       </c>
       <c r="K40">
-        <v>23</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -10947,17 +10960,17 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" t="s">
-        <v>19</v>
+      <c r="J41">
+        <v>21</v>
       </c>
       <c r="K41">
-        <v>21</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>116</v>
       </c>
       <c r="M41" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -10988,17 +11001,17 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>19</v>
+      <c r="J42">
+        <v>32</v>
       </c>
       <c r="K42">
-        <v>32</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -11029,17 +11042,17 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43">
         <v>10</v>
       </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" t="s">
         <v>10</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -11070,17 +11083,17 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" t="s">
         <v>10</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>6</v>
-      </c>
-      <c r="M44" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -11111,17 +11124,17 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>7</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" t="s">
         <v>7</v>
-      </c>
-      <c r="M45" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -11152,17 +11165,17 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" t="s">
         <v>2</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
-      </c>
-      <c r="M46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -11193,17 +11206,17 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" t="s">
         <v>12</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>6</v>
-      </c>
-      <c r="M47" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -11234,17 +11247,17 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>19</v>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>179</v>
       </c>
       <c r="M48" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -11275,17 +11288,17 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49">
+        <v>28</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
         <v>70</v>
-      </c>
-      <c r="K49">
-        <v>28</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -11316,17 +11329,17 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>19</v>
+      <c r="J50">
+        <v>27</v>
       </c>
       <c r="K50">
-        <v>27</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>48</v>
       </c>
       <c r="M50" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
@@ -11357,17 +11370,17 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>3</v>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
         <v>7</v>
       </c>
+      <c r="L51" t="s">
+        <v>180</v>
+      </c>
       <c r="M51" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -11398,17 +11411,17 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
-        <v>23</v>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
         <v>6</v>
       </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
       <c r="M52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -11439,17 +11452,17 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
-        <v>19</v>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L53" t="s">
+        <v>152</v>
       </c>
       <c r="M53" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -11480,17 +11493,17 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
-        <v>19</v>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
         <v>2</v>
       </c>
+      <c r="L54" t="s">
+        <v>107</v>
+      </c>
       <c r="M54" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -11521,17 +11534,17 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
-        <v>26</v>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
         <v>9</v>
       </c>
+      <c r="L55" t="s">
+        <v>72</v>
+      </c>
       <c r="M55" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -11562,17 +11575,17 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56">
+        <v>32</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" t="s">
         <v>7</v>
-      </c>
-      <c r="K56">
-        <v>32</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -11603,17 +11616,17 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>19</v>
+      <c r="J57">
+        <v>44</v>
       </c>
       <c r="K57">
-        <v>44</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>141</v>
       </c>
       <c r="M57" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
@@ -11644,17 +11657,17 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" t="s">
-        <v>19</v>
+      <c r="J58">
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>41</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>102</v>
       </c>
       <c r="M58" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
@@ -11685,17 +11698,17 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
-        <v>19</v>
+      <c r="J59">
+        <v>58</v>
       </c>
       <c r="K59">
-        <v>58</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>107</v>
       </c>
       <c r="M59" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -11726,17 +11739,17 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" t="s">
-        <v>19</v>
+      <c r="J60">
+        <v>4</v>
       </c>
       <c r="K60">
-        <v>4</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>102</v>
       </c>
       <c r="M60" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -11767,17 +11780,17 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>19</v>
+      <c r="J61">
+        <v>60</v>
       </c>
       <c r="K61">
-        <v>60</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>181</v>
       </c>
       <c r="M61" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -11808,17 +11821,17 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>19</v>
+      <c r="J62">
+        <v>65</v>
       </c>
       <c r="K62">
-        <v>65</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>69</v>
       </c>
       <c r="M62" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -11849,17 +11862,17 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>19</v>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
         <v>7</v>
       </c>
+      <c r="L63" t="s">
+        <v>48</v>
+      </c>
       <c r="M63" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -11890,17 +11903,17 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>19</v>
+      <c r="J64">
+        <v>14</v>
       </c>
       <c r="K64">
-        <v>14</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>182</v>
       </c>
       <c r="M64" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
@@ -11931,17 +11944,17 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>19</v>
+      <c r="J65">
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L65" t="s">
+        <v>132</v>
       </c>
       <c r="M65" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
@@ -11972,17 +11985,17 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66">
         <v>19</v>
       </c>
       <c r="K66">
-        <v>19</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>102</v>
       </c>
       <c r="M66" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -12013,17 +12026,17 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>107</v>
+      </c>
+      <c r="M67" t="s">
         <v>12</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>4</v>
-      </c>
-      <c r="M67" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -12054,17 +12067,17 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" t="s">
-        <v>19</v>
+      <c r="J68">
+        <v>15</v>
       </c>
       <c r="K68">
-        <v>15</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>20</v>
       </c>
       <c r="M68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -12095,17 +12108,17 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>19</v>
+      <c r="J69">
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L69" t="s">
+        <v>132</v>
       </c>
       <c r="M69" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -12136,17 +12149,17 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" t="s">
         <v>12</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>7</v>
-      </c>
-      <c r="M70" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -12177,17 +12190,17 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" t="s">
-        <v>23</v>
+      <c r="J71">
+        <v>24</v>
       </c>
       <c r="K71">
-        <v>24</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>6</v>
       </c>
       <c r="M71" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -12218,17 +12231,17 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>23</v>
+      <c r="J72">
+        <v>18</v>
       </c>
       <c r="K72">
-        <v>18</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>183</v>
       </c>
       <c r="M72" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -12259,17 +12272,17 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>6</v>
+      </c>
+      <c r="L73" t="s">
+        <v>171</v>
+      </c>
+      <c r="M73" t="s">
         <v>12</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>6</v>
-      </c>
-      <c r="M73" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -12300,17 +12313,17 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" t="s">
-        <v>19</v>
+      <c r="J74">
+        <v>20</v>
       </c>
       <c r="K74">
-        <v>20</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>145</v>
       </c>
       <c r="M74" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
@@ -12341,17 +12354,17 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" t="s">
-        <v>19</v>
+      <c r="J75">
+        <v>8</v>
       </c>
       <c r="K75">
-        <v>8</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>78</v>
       </c>
       <c r="M75" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
@@ -12382,17 +12395,17 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76">
+        <v>14</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" t="s">
         <v>2</v>
-      </c>
-      <c r="K76">
-        <v>14</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
@@ -12423,17 +12436,17 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>19</v>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L77" t="s">
+        <v>84</v>
       </c>
       <c r="M77" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -12464,17 +12477,17 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78">
+        <v>7</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>184</v>
+      </c>
+      <c r="M78" t="s">
         <v>16</v>
-      </c>
-      <c r="K78">
-        <v>7</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -12505,17 +12518,17 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" t="s">
-        <v>26</v>
+      <c r="J79">
+        <v>39</v>
       </c>
       <c r="K79">
-        <v>39</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>75</v>
       </c>
       <c r="M79" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
@@ -12546,17 +12559,17 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" t="s">
-        <v>19</v>
+      <c r="J80">
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>5</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>163</v>
       </c>
       <c r="M80" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -12587,17 +12600,17 @@
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81">
+        <v>9</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>58</v>
+      </c>
+      <c r="M81" t="s">
         <v>2</v>
-      </c>
-      <c r="K81">
-        <v>9</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -12628,17 +12641,17 @@
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" t="s">
-        <v>19</v>
+      <c r="J82">
+        <v>25</v>
       </c>
       <c r="K82">
-        <v>25</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>48</v>
       </c>
       <c r="M82" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -12669,17 +12682,17 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>9</v>
+      </c>
+      <c r="L83" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" t="s">
         <v>90</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>9</v>
-      </c>
-      <c r="M83" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -12710,17 +12723,17 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84" t="s">
+        <v>128</v>
+      </c>
+      <c r="M84" t="s">
         <v>51</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>3</v>
-      </c>
-      <c r="M84" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -12751,17 +12764,17 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" t="s">
-        <v>19</v>
+      <c r="J85">
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
         <v>6</v>
       </c>
+      <c r="L85" t="s">
+        <v>102</v>
+      </c>
       <c r="M85" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -12792,17 +12805,17 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" t="s">
-        <v>19</v>
+      <c r="J86">
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
         <v>6</v>
       </c>
+      <c r="L86" t="s">
+        <v>102</v>
+      </c>
       <c r="M86" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -12833,17 +12846,17 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>185</v>
+      </c>
+      <c r="M87" t="s">
         <v>12</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -12874,17 +12887,17 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" t="s">
-        <v>3</v>
+      <c r="J88">
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
         <v>7</v>
       </c>
+      <c r="L88" t="s">
+        <v>186</v>
+      </c>
       <c r="M88" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -12915,17 +12928,17 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" t="s">
-        <v>19</v>
+      <c r="J89">
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>46</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>102</v>
       </c>
       <c r="M89" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
@@ -12956,17 +12969,17 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90">
+        <v>31</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>106</v>
+      </c>
+      <c r="M90" t="s">
         <v>16</v>
-      </c>
-      <c r="K90">
-        <v>31</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -12997,17 +13010,17 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" t="s">
-        <v>19</v>
+      <c r="J91">
+        <v>13</v>
       </c>
       <c r="K91">
-        <v>13</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>163</v>
       </c>
       <c r="M91" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
@@ -13038,17 +13051,17 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
+      </c>
+      <c r="L92" t="s">
+        <v>187</v>
+      </c>
+      <c r="M92" t="s">
         <v>2</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>7</v>
-      </c>
-      <c r="M92" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -13079,17 +13092,17 @@
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93" t="s">
-        <v>19</v>
+      <c r="J93">
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>3</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>97</v>
       </c>
       <c r="M93" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -13120,17 +13133,17 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94" t="s">
+        <v>188</v>
+      </c>
+      <c r="M94" t="s">
         <v>12</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
-      <c r="M94" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -13161,17 +13174,17 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
+        <v>58</v>
+      </c>
+      <c r="M95" t="s">
         <v>12</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>8</v>
-      </c>
-      <c r="M95" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -13202,17 +13215,17 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96">
+        <v>37</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>134</v>
+      </c>
+      <c r="M96" t="s">
         <v>98</v>
-      </c>
-      <c r="K96">
-        <v>37</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
@@ -13243,17 +13256,17 @@
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" t="s">
-        <v>19</v>
+      <c r="J97">
+        <v>37</v>
       </c>
       <c r="K97">
-        <v>37</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>163</v>
       </c>
       <c r="M97" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -13284,17 +13297,17 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>19</v>
+      <c r="J98">
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="L98" t="s">
+        <v>48</v>
       </c>
       <c r="M98" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -13325,17 +13338,17 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99" t="s">
+        <v>187</v>
+      </c>
+      <c r="M99" t="s">
         <v>2</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -13366,17 +13379,17 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>19</v>
+      <c r="J100">
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="L100" t="s">
+        <v>145</v>
       </c>
       <c r="M100" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
@@ -13407,17 +13420,17 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101" t="s">
-        <v>19</v>
+      <c r="J101">
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
       </c>
-      <c r="L101">
-        <v>0</v>
+      <c r="L101" t="s">
+        <v>97</v>
       </c>
       <c r="M101" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -13448,17 +13461,17 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>19</v>
+      <c r="J102">
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
         <v>9</v>
       </c>
+      <c r="L102" t="s">
+        <v>163</v>
+      </c>
       <c r="M102" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
